--- a/db.xlsx
+++ b/db.xlsx
@@ -16,34 +16,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>id_user</t>
-  </si>
-  <si>
-    <t>nama</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>int</t>
   </si>
   <si>
     <t>varchar</t>
+  </si>
+  <si>
+    <t>telp</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>UserEmail</t>
+  </si>
+  <si>
+    <t>UserPassword</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>ClassName</t>
+  </si>
+  <si>
+    <t>CourseID</t>
+  </si>
+  <si>
+    <t>CourseName</t>
+  </si>
+  <si>
+    <t>IDTeacher</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>user_course</t>
+  </si>
+  <si>
+    <t>userID</t>
+  </si>
+  <si>
+    <t>courseID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,16 +81,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF235A81"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,19 +124,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1" descr="Teks penuh">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3048000" y="190500"/>
+          <a:ext cx="476250" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -368,65 +498,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:D8"/>
+  <dimension ref="B2:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I16" sqref="I16:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
+    <row r="2" spans="2:19">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="4" spans="2:19">
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:19">
       <c r="B6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>255</v>
       </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:19">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>50</v>
       </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:19">
       <c r="B8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>255</v>
       </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:I2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
